--- a/media/extract_description/raw_files/output2_maybank_statement1.xlsx
+++ b/media/extract_description/raw_files/output2_maybank_statement1.xlsx
@@ -192,7 +192,7 @@
     <t xml:space="preserve">   UNIVERSITI SAINS MAL   BB CAG DESA 26062020</t>
   </si>
   <si>
-    <t>MUHAMMAD AZ7UBAIB BIN AZEMAN</t>
+    <t>MUHAMMAD AZZUBAIR BIN AZEMAN</t>
   </si>
   <si>
     <t>SALARY INCOME</t>
